--- a/1.2.1 SPICE CMMI/Requirements Documentation.xlsx
+++ b/1.2.1 SPICE CMMI/Requirements Documentation.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$M$58</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>DC Motor Velocity Control by means of a square signal whose pulse with varies trough time and presents a constant frequency fo = 10 KHz.</t>
   </si>
@@ -171,6 +174,42 @@
   </si>
   <si>
     <t>1. EEPROM Memory                                      2. Timer by interruption avery XXms (User defined).                                               3. Watchdog timer.</t>
+  </si>
+  <si>
+    <t>Risks</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>M4 Data sheet understanding. Requirements understanding in general.</t>
+  </si>
+  <si>
+    <t>Time frame researching and implementation on the topic could be long.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Communication drivers module development could be long </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hardware availability </t>
+  </si>
+  <si>
+    <t>Noise filters (FIR) could be necessary, and implementation could take long.</t>
+  </si>
+  <si>
+    <t>Controller tunnign could take long.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Communication drivers module development could take long </t>
+  </si>
+  <si>
+    <t>Not previous experience in configuring memmory management. Development could take long</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Software may not take plenty of resources as to reach 70% of CPU usage.</t>
   </si>
 </sst>
 </file>
@@ -334,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -342,19 +381,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -382,23 +429,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -680,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K68"/>
+  <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="102" zoomScaleNormal="102" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,724 +757,1011 @@
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="19"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="18"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="G2" s="6"/>
+      <c r="H2" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="20">
+        <v>15</v>
+      </c>
+      <c r="L2" s="20"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="G6" s="6"/>
+      <c r="H6" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="20">
+        <v>9</v>
+      </c>
+      <c r="L6" s="20"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>3</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18" t="s">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+      <c r="G10" s="6"/>
+      <c r="H10" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="20">
+        <v>16</v>
+      </c>
+      <c r="L10" s="20"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+    </row>
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
         <v>4</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="8" t="s">
+      <c r="E14" s="11"/>
+      <c r="F14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="G14" s="11"/>
+      <c r="H14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="23">
+        <v>12</v>
+      </c>
+      <c r="L14" s="24"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="28"/>
+    </row>
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>5</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18" t="s">
+      <c r="E19" s="6"/>
+      <c r="F19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="18"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="G19" s="6"/>
+      <c r="H19" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="23">
+        <v>10</v>
+      </c>
+      <c r="L19" s="24"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="26"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="26"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="26"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="28"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>6</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18" t="s">
+      <c r="E24" s="6"/>
+      <c r="F24" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="18"/>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
+      <c r="G24" s="6"/>
+      <c r="H24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="20">
+        <v>10</v>
+      </c>
+      <c r="L24" s="20"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
         <v>7</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E33" s="22"/>
-      <c r="F33" s="18" t="s">
+      <c r="E33" s="7"/>
+      <c r="F33" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G33" s="18"/>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
+      <c r="G33" s="6"/>
+      <c r="H33" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="20">
+        <v>11</v>
+      </c>
+      <c r="L33" s="20"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
         <v>8</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18" t="s">
+      <c r="E37" s="6"/>
+      <c r="F37" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G37" s="18"/>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
+      <c r="G37" s="6"/>
+      <c r="H37" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
         <v>9</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18" t="s">
+      <c r="E41" s="6"/>
+      <c r="F41" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G41" s="18"/>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
+      <c r="G41" s="6"/>
+      <c r="H41" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="20">
+        <v>13</v>
+      </c>
+      <c r="L41" s="20"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
         <v>10</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18" t="s">
+      <c r="E45" s="6"/>
+      <c r="F45" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G45" s="18"/>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="J49" s="5"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="J50" s="5"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="J51" s="5"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="J52" s="5"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="J53" s="5"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="J54" s="1"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="7">
+      <c r="G45" s="6"/>
+      <c r="H45" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="20">
+        <v>5</v>
+      </c>
+      <c r="L45" s="20"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
         <v>11</v>
       </c>
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D55" s="18" t="s">
+      <c r="D55" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18" t="s">
+      <c r="E55" s="6"/>
+      <c r="F55" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G55" s="18"/>
-      <c r="J55" s="1"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="J56" s="1"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="J57" s="1"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="J58" s="1"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G55" s="6"/>
+      <c r="H55" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="20">
+        <v>16</v>
+      </c>
+      <c r="L55" s="20"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="J59" s="1"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="J61" s="1"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J62" s="1"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J64" s="1"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.25">
@@ -1431,7 +1777,72 @@
       <c r="C68" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="81">
+    <mergeCell ref="K37:L40"/>
+    <mergeCell ref="H41:J44"/>
+    <mergeCell ref="K41:L44"/>
+    <mergeCell ref="H45:J54"/>
+    <mergeCell ref="K45:L54"/>
+    <mergeCell ref="H10:J13"/>
+    <mergeCell ref="H55:J58"/>
+    <mergeCell ref="K55:L58"/>
+    <mergeCell ref="K6:L9"/>
+    <mergeCell ref="K10:L13"/>
+    <mergeCell ref="H14:J18"/>
+    <mergeCell ref="H19:J23"/>
+    <mergeCell ref="H24:J32"/>
+    <mergeCell ref="K14:L18"/>
+    <mergeCell ref="K19:L23"/>
+    <mergeCell ref="K24:L32"/>
+    <mergeCell ref="H33:J36"/>
+    <mergeCell ref="K33:L36"/>
+    <mergeCell ref="H37:J40"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H2:J5"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K2:L5"/>
+    <mergeCell ref="H6:J9"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B24:B32"/>
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="F10:G13"/>
+    <mergeCell ref="D10:E13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="F19:G23"/>
+    <mergeCell ref="D19:E23"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="F14:G18"/>
+    <mergeCell ref="D14:E18"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A24:A32"/>
+    <mergeCell ref="C24:C32"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F6:G9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D6:E9"/>
+    <mergeCell ref="D2:E5"/>
+    <mergeCell ref="F2:G5"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="A45:A54"/>
+    <mergeCell ref="C45:C54"/>
+    <mergeCell ref="B45:B54"/>
     <mergeCell ref="A55:A58"/>
     <mergeCell ref="C55:C58"/>
     <mergeCell ref="B55:B58"/>
@@ -1448,47 +1859,6 @@
     <mergeCell ref="D55:E58"/>
     <mergeCell ref="F55:G58"/>
     <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="A45:A54"/>
-    <mergeCell ref="C45:C54"/>
-    <mergeCell ref="B45:B54"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F6:G9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D6:E9"/>
-    <mergeCell ref="D2:E5"/>
-    <mergeCell ref="F2:G5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="F14:G18"/>
-    <mergeCell ref="D14:E18"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A24:A32"/>
-    <mergeCell ref="C24:C32"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="F10:G13"/>
-    <mergeCell ref="D10:E13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="F19:G23"/>
-    <mergeCell ref="D19:E23"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B24:B32"/>
-    <mergeCell ref="C37:C40"/>
-    <mergeCell ref="B37:B40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="87" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
